--- a/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
+++ b/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
+++ b/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.88</v>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
+++ b/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006904</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康产业升级混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1061</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006905</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康产业升级混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1057</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -580,150 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0686</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005111</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012793</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>50.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,13 +909,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,36 +966,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>006904</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>泰康产业升级混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1764</t>
+          <t>0.1061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -996,36 +1004,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001411</t>
+          <t>006905</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合A</t>
+          <t>泰康产业升级混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1393</t>
+          <t>0.1057</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1034,36 +1042,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005763</t>
+          <t>506008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票C</t>
+          <t>长城科创两年定开混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>50.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.0686</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1072,120 +1080,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002051</t>
+          <t>005000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合C</t>
+          <t>泰康泉林量化价值精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0437</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
+++ b/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -532,6 +549,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -739,7 +1268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
+++ b/数据整理/stocks/A股/科创板/688201-信安世纪.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -549,6 +566,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015919</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015920</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016381</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1060,7 +1855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1268,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1438,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
